--- a/myData/RAN 7-29-18 BETA GAL RAN11, RAN12, RAN13.xlsx
+++ b/myData/RAN 7-29-18 BETA GAL RAN11, RAN12, RAN13.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TimeCourseAndBetaGalAssays2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1cc2362bc617e12/Documents/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B8FB5-5FE1-4D9C-9C4B-07AE5594C8A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22992" windowHeight="13860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,9 +371,6 @@
     <t>RAN</t>
   </si>
   <si>
-    <t>2018-07-24</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -388,12 +384,15 @@
   </si>
   <si>
     <t>CRD38</t>
+  </si>
+  <si>
+    <t>2018-07-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,16 +912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -961,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
@@ -1274,7 +1273,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
@@ -1291,7 +1290,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -1308,7 +1307,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>7.7619999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
@@ -1352,7 +1351,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
@@ -1369,7 +1368,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -1386,7 +1385,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>5.891</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -1430,7 +1429,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
@@ -1447,7 +1446,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -1464,7 +1463,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>4.6159999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -1508,7 +1507,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -1525,7 +1524,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -1542,7 +1541,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
@@ -1586,7 +1585,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
@@ -1603,7 +1602,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
@@ -1620,7 +1619,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>42</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -1664,7 +1663,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
@@ -1681,7 +1680,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
@@ -1698,7 +1697,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>47</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>2.827</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
@@ -1742,7 +1741,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
@@ -1759,7 +1758,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
@@ -1776,7 +1775,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>52</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>19.324999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
@@ -1820,7 +1819,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
@@ -1837,7 +1836,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
@@ -1854,7 +1853,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>6.6310000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
@@ -1898,7 +1897,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
@@ -1915,7 +1914,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
@@ -1932,7 +1931,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>62</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>10.557</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
@@ -1976,7 +1975,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
@@ -1993,7 +1992,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
@@ -2010,7 +2009,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
         <v>1</v>
@@ -2049,7 +2048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
@@ -2362,7 +2361,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
@@ -2379,7 +2378,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14" t="s">
@@ -2396,7 +2395,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>22</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
@@ -2440,7 +2439,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14" t="s">
@@ -2457,7 +2456,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14" t="s">
@@ -2474,7 +2473,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>27</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>2.6389999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14" t="s">
@@ -2518,7 +2517,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14" t="s">
@@ -2535,7 +2534,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14" t="s">
@@ -2552,7 +2551,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>32</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>1.2889999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
@@ -2596,7 +2595,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
@@ -2613,7 +2612,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
@@ -2630,7 +2629,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
         <v>37</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>3.1579999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
@@ -2674,7 +2673,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14" t="s">
@@ -2691,7 +2690,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14" t="s">
@@ -2708,7 +2707,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
         <v>42</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>3.9769999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
@@ -2752,7 +2751,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14" t="s">
@@ -2769,7 +2768,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
@@ -2786,7 +2785,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>47</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
@@ -2830,7 +2829,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
@@ -2847,7 +2846,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
@@ -2864,7 +2863,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
         <v>52</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>5.6890000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14" t="s">
@@ -2908,7 +2907,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
@@ -2925,7 +2924,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
@@ -2942,7 +2941,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="14" t="s">
         <v>57</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14" t="s">
@@ -2986,7 +2985,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14" t="s">
@@ -3003,7 +3002,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
@@ -3020,7 +3019,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="14" t="s">
         <v>62</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14" t="s">
@@ -3064,7 +3063,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14" t="s">
@@ -3081,7 +3080,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14" t="s">
@@ -3105,16 +3104,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +3166,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3194,25 +3196,25 @@
         <v>115</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N2" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
@@ -3232,25 +3234,25 @@
         <v>115</v>
       </c>
       <c r="K3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N3" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -3270,25 +3272,25 @@
         <v>115</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
         <v>116</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
@@ -3308,25 +3310,25 @@
         <v>115</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N5" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -3356,10 +3358,10 @@
         <v>115</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3374,7 +3376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -3394,10 +3396,10 @@
         <v>115</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3412,7 +3414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -3432,10 +3434,10 @@
         <v>115</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3450,7 +3452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
@@ -3470,10 +3472,10 @@
         <v>115</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3488,7 +3490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
@@ -3518,10 +3520,10 @@
         <v>115</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -3536,7 +3538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -3556,10 +3558,10 @@
         <v>115</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -3574,7 +3576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
@@ -3594,10 +3596,10 @@
         <v>115</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -3612,7 +3614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
@@ -3632,10 +3634,10 @@
         <v>115</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -3650,7 +3652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -3680,10 +3682,10 @@
         <v>115</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -3698,7 +3700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -3718,10 +3720,10 @@
         <v>115</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -3736,7 +3738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
@@ -3756,10 +3758,10 @@
         <v>115</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -3774,7 +3776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
@@ -3794,10 +3796,10 @@
         <v>115</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -3812,7 +3814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
@@ -3842,10 +3844,10 @@
         <v>115</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3860,7 +3862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -3880,10 +3882,10 @@
         <v>115</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
@@ -3918,10 +3920,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3936,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -3956,10 +3958,10 @@
         <v>115</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
@@ -4004,10 +4006,10 @@
         <v>115</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -4022,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -4042,10 +4044,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -4060,7 +4062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
@@ -4080,10 +4082,10 @@
         <v>115</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -4098,7 +4100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -4118,10 +4120,10 @@
         <v>115</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -4136,7 +4138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
@@ -4166,10 +4168,10 @@
         <v>115</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -4184,7 +4186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -4204,10 +4206,10 @@
         <v>115</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -4222,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -4242,10 +4244,10 @@
         <v>115</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -4260,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
@@ -4280,10 +4282,10 @@
         <v>115</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -4298,7 +4300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>52</v>
       </c>
@@ -4328,10 +4330,10 @@
         <v>115</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4346,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
@@ -4366,10 +4368,10 @@
         <v>115</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4384,7 +4386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
@@ -4404,10 +4406,10 @@
         <v>115</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4422,7 +4424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -4442,10 +4444,10 @@
         <v>115</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4460,7 +4462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -4490,10 +4492,10 @@
         <v>115</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -4508,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
@@ -4528,10 +4530,10 @@
         <v>115</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -4546,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
@@ -4566,10 +4568,10 @@
         <v>115</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -4584,7 +4586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
@@ -4604,10 +4606,10 @@
         <v>115</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -4622,7 +4624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>62</v>
       </c>
@@ -4652,10 +4654,10 @@
         <v>115</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -4670,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
@@ -4690,10 +4692,10 @@
         <v>115</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -4708,7 +4710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
@@ -4728,10 +4730,10 @@
         <v>115</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -4746,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
@@ -4766,10 +4768,10 @@
         <v>115</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41">
         <v>89</v>
@@ -4790,16 +4792,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K6" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -4873,19 +4878,19 @@
         <v>115</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
@@ -4905,19 +4910,19 @@
         <v>115</v>
       </c>
       <c r="K3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -4937,19 +4942,19 @@
         <v>115</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
         <v>116</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
@@ -4969,19 +4974,19 @@
         <v>115</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" t="s">
         <v>116</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="N5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -5011,10 +5016,10 @@
         <v>115</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5023,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -5043,10 +5048,10 @@
         <v>115</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -5055,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -5075,10 +5080,10 @@
         <v>115</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -5087,7 +5092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
@@ -5107,10 +5112,10 @@
         <v>115</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -5119,7 +5124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
@@ -5149,10 +5154,10 @@
         <v>115</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -5161,7 +5166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -5181,10 +5186,10 @@
         <v>115</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -5193,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
@@ -5213,10 +5218,10 @@
         <v>115</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -5225,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
@@ -5245,10 +5250,10 @@
         <v>115</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -5257,7 +5262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
@@ -5287,10 +5292,10 @@
         <v>115</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -5299,7 +5304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -5319,10 +5324,10 @@
         <v>115</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -5331,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
@@ -5351,10 +5356,10 @@
         <v>115</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -5363,7 +5368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
@@ -5383,10 +5388,10 @@
         <v>115</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -5395,7 +5400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
@@ -5425,10 +5430,10 @@
         <v>115</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5437,7 +5442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -5457,10 +5462,10 @@
         <v>115</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5469,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
@@ -5489,10 +5494,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5501,7 +5506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -5521,10 +5526,10 @@
         <v>115</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5533,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
@@ -5563,10 +5568,10 @@
         <v>115</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -5575,7 +5580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -5595,10 +5600,10 @@
         <v>115</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -5607,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
@@ -5627,10 +5632,10 @@
         <v>115</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -5639,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
@@ -5659,10 +5664,10 @@
         <v>115</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -5671,7 +5676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
@@ -5701,10 +5706,10 @@
         <v>115</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -5713,7 +5718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -5733,10 +5738,10 @@
         <v>115</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -5745,7 +5750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -5765,10 +5770,10 @@
         <v>115</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -5777,7 +5782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
@@ -5797,10 +5802,10 @@
         <v>115</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -5809,7 +5814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>52</v>
       </c>
@@ -5839,10 +5844,10 @@
         <v>115</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5851,7 +5856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
@@ -5871,10 +5876,10 @@
         <v>115</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5883,7 +5888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
@@ -5903,10 +5908,10 @@
         <v>115</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5915,7 +5920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -5935,10 +5940,10 @@
         <v>115</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5947,7 +5952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
@@ -5977,10 +5982,10 @@
         <v>115</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -5989,7 +5994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
@@ -6009,10 +6014,10 @@
         <v>115</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -6021,7 +6026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
@@ -6041,10 +6046,10 @@
         <v>115</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -6053,7 +6058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
@@ -6073,10 +6078,10 @@
         <v>115</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -6085,7 +6090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>62</v>
       </c>
@@ -6115,10 +6120,10 @@
         <v>115</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -6127,7 +6132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
@@ -6147,10 +6152,10 @@
         <v>115</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -6159,7 +6164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
@@ -6179,10 +6184,10 @@
         <v>115</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -6191,7 +6196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
@@ -6211,10 +6216,10 @@
         <v>115</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M41">
         <v>89</v>
